--- a/data/landings/cdfw/public/fish_bulletins/raw/fb138/raw/Table18.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb138/raw/Table18.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb138/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901D3253-E74C-2442-8B9D-2AB6C8940BDB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D326EDD-B78D-6346-B177-1E7589A4CC9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11160" yWindow="2160" windowWidth="17140" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="29">
   <si>
     <t>Value</t>
   </si>
@@ -34,21 +34,9 @@
     <t>Moss Landing</t>
   </si>
   <si>
-    <t>*704,697</t>
-  </si>
-  <si>
     <t>Santa Cruz</t>
   </si>
   <si>
-    <t>*53,502</t>
-  </si>
-  <si>
-    <t>*1,633,617</t>
-  </si>
-  <si>
-    <t>*329026</t>
-  </si>
-  <si>
     <t>Albaeore</t>
   </si>
   <si>
@@ -82,9 +70,6 @@
     <t>Port totals</t>
   </si>
   <si>
-    <t>*290473</t>
-  </si>
-  <si>
     <t>Rockfish</t>
   </si>
   <si>
@@ -94,9 +79,6 @@
     <t>Pctrale sole</t>
   </si>
   <si>
-    <t>1304S0</t>
-  </si>
-  <si>
     <t>Squid</t>
   </si>
   <si>
@@ -122,19 +104,28 @@
   </si>
   <si>
     <t>species</t>
+  </si>
+  <si>
+    <t>Total check</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -159,10 +150,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,30 +473,44 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2">
+        <v>329026</v>
+      </c>
+      <c r="D2" s="2">
+        <v>10792049</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -511,153 +518,208 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>230407</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1308431</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>144780</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2502175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>41880</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3958990</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2">
+        <v>23958</v>
+      </c>
+      <c r="D6" s="2">
+        <v>296476</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C7" s="2">
+        <v>23819</v>
+      </c>
+      <c r="D7" s="2">
+        <v>169013</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1">
-        <v>10792049</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
+      <c r="C8" s="2">
+        <v>21744</v>
+      </c>
+      <c r="D8" s="2">
+        <v>490886</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1">
-        <v>230407</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1308431</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
+      <c r="C9" s="2">
+        <v>9846</v>
+      </c>
+      <c r="D9" s="2">
+        <v>16635</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1">
-        <v>144780</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2502175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
+      <c r="C10" s="2">
+        <v>8617</v>
+      </c>
+      <c r="D10" s="2">
+        <v>132845</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1">
-        <v>41880</v>
-      </c>
-      <c r="D6" s="2">
-        <v>3958990</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C7" s="1">
-        <v>23958</v>
-      </c>
-      <c r="D7" s="1">
-        <v>296476</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="1">
-        <v>23819</v>
-      </c>
-      <c r="D8" s="1">
-        <v>169013</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
+      <c r="C11" s="2">
+        <v>8540</v>
+      </c>
+      <c r="D11" s="2">
+        <v>38764</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="1">
-        <v>21744</v>
-      </c>
-      <c r="D9" s="1">
-        <v>490886</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
+      <c r="C12" s="2">
+        <v>6360</v>
+      </c>
+      <c r="D12" s="2">
+        <v>96496</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="1">
-        <v>9816</v>
-      </c>
-      <c r="D10" s="1">
-        <v>16635</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
+      <c r="C13" s="2">
+        <v>5172</v>
+      </c>
+      <c r="D13" s="2">
+        <v>51488</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="1">
-        <v>8617</v>
-      </c>
-      <c r="D11" s="1">
-        <v>132845</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
+      <c r="C14" s="2">
+        <v>21269</v>
+      </c>
+      <c r="D14" s="2">
+        <v>305886</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="1">
-        <v>8540</v>
-      </c>
-      <c r="D12" s="1">
-        <v>38764</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="1">
-        <v>6360</v>
-      </c>
-      <c r="D13" s="1">
-        <v>96496</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="1">
-        <v>5172</v>
-      </c>
-      <c r="D14" s="1">
-        <v>51488</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="1">
-        <v>21269</v>
-      </c>
-      <c r="D15" s="1">
-        <v>305886</v>
+      <c r="C15" s="2">
+        <v>875418</v>
+      </c>
+      <c r="D15" s="2">
+        <v>20160134</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1875418</v>
-      </c>
-      <c r="D16" s="1">
-        <v>20160134</v>
+      <c r="B16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="4">
+        <f>SUM(C2:C14)-C15</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <f>SUM(D2:D14)-D15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2">
+        <v>290473</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1649527</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -665,213 +727,276 @@
         <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2">
+        <v>133895</v>
+      </c>
+      <c r="D18" s="2">
+        <v>12657370</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="2">
+        <v>80757</v>
+      </c>
+      <c r="D19" s="2">
+        <v>138983</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2">
+        <v>51365</v>
+      </c>
+      <c r="D20" s="2">
+        <v>872921</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="2">
+        <v>43372</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1168346</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2">
+        <v>18530</v>
+      </c>
+      <c r="D22" s="2">
+        <v>186320</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="2">
+        <v>18389</v>
+      </c>
+      <c r="D23" s="2">
+        <v>130480</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="2">
+        <v>12652</v>
+      </c>
+      <c r="D24" s="2">
+        <v>415000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="1">
-        <v>1619527</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="1">
-        <v>133895</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1265737</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="1">
-        <v>80757</v>
-      </c>
-      <c r="D20" s="1">
-        <v>138983</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
+      <c r="C25" s="2">
+        <v>12642</v>
+      </c>
+      <c r="D25" s="2">
+        <v>156446</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2">
+        <v>9834</v>
+      </c>
+      <c r="D26" s="2">
+        <v>149193</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="1">
-        <v>51365</v>
-      </c>
-      <c r="D21" s="1">
-        <v>872921</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="1">
-        <v>43372</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1168346</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
+      <c r="C27" s="2">
+        <v>5764</v>
+      </c>
+      <c r="D27" s="2">
+        <v>106905</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="1">
-        <v>18530</v>
-      </c>
-      <c r="D23" s="1">
-        <v>186320</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="1">
-        <v>18389</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="1">
-        <v>12652</v>
-      </c>
-      <c r="D25" s="1">
-        <v>415000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="1">
-        <v>12642</v>
-      </c>
-      <c r="D26" s="1">
-        <v>156446</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="1">
-        <v>9834</v>
-      </c>
-      <c r="D27" s="1">
-        <v>149193</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="1">
-        <v>5764</v>
-      </c>
-      <c r="D28" s="1">
-        <v>106905</v>
+      <c r="C28" s="2">
+        <v>27024</v>
+      </c>
+      <c r="D28" s="2">
+        <v>338605</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="2">
+        <v>704697</v>
+      </c>
+      <c r="D29" s="2">
+        <v>17970096</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="1">
-        <v>27024</v>
-      </c>
-      <c r="D29" s="1">
-        <v>338605</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="4">
+        <f>SUM(C17:C28)-C29</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="4">
+        <f>SUM(D17:D28)-D29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="1">
-        <v>17970096</v>
+      <c r="B31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="2">
+        <v>19471</v>
+      </c>
+      <c r="D31" s="2">
+        <v>32900</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="2">
+        <v>10145</v>
+      </c>
+      <c r="D32" s="2">
+        <v>46047</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="1">
-        <v>119471</v>
-      </c>
-      <c r="D32" s="1">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="2">
+        <v>6591</v>
+      </c>
+      <c r="D33" s="2">
+        <v>37431</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="2">
+        <v>17295</v>
+      </c>
+      <c r="D34" s="2">
+        <v>181933</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="1">
-        <v>10145</v>
-      </c>
-      <c r="D33" s="1">
-        <v>46047</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="1">
-        <v>6591</v>
-      </c>
-      <c r="D34" s="1">
-        <v>37431</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="2">
+        <v>53502</v>
+      </c>
+      <c r="D35" s="2">
+        <v>298311</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B36" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="1">
-        <v>17295</v>
-      </c>
-      <c r="D35" s="1">
-        <v>181933</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B36" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="1">
-        <v>298311</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C36" s="4">
+        <f>SUM(C31:C34)-C35</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="4">
+        <f>SUM(D31:D34)-D35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B37" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="1">
+        <v>23</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1633617</v>
+      </c>
+      <c r="D37" s="2">
         <v>38428541</v>
       </c>
     </row>

--- a/data/landings/cdfw/public/fish_bulletins/raw/fb138/raw/Table18.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb138/raw/Table18.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb138/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D326EDD-B78D-6346-B177-1E7589A4CC9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582BE222-B162-194C-A188-D8FACA8028EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11160" yWindow="2160" windowWidth="17140" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="30">
   <si>
     <t>Value</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>Total check</t>
+  </si>
+  <si>
+    <t>Totals</t>
   </si>
 </sst>
 </file>
@@ -473,13 +476,12 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="1"/>
@@ -988,10 +990,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C37" s="2">
         <v>1633617</v>
